--- a/static/files/cadastre.xlsx
+++ b/static/files/cadastre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D6468-AE64-0046-A33E-53A6891646EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5DF01B-7FDC-884E-868A-EB3E700A4D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -262,8 +262,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/files/cadastre.xlsx
+++ b/static/files/cadastre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5DF01B-7FDC-884E-868A-EB3E700A4D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F371B19D-2C75-484A-9A9E-CD4A51CF47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="34020" yWindow="4100" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Références Cadastrales" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -43,9 +43,6 @@
     <t>1. Telechager le modèle (ce fichier)</t>
   </si>
   <si>
-    <t>2. Modifier à votre guise le fichier pour modifier la liste des prêts</t>
-  </si>
-  <si>
     <t>3. Enregistrer vos modifications</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
   </si>
   <si>
-    <t>si des logements sont déjà assignés à la convention, alors ils seront exportés dans le fichier modèle</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enrigistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -71,6 +62,12 @@
   </si>
   <si>
     <t>Surface</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
   </si>
 </sst>
 </file>
@@ -244,6 +241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -262,8 +261,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +578,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,42 +587,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="17"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="10"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -639,7 +636,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="11"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -653,265 +650,265 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="16"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="16"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="17"/>
+      <c r="D50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -927,11 +924,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -951,7 +946,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -966,21 +961,16 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0IlGhDNZkMw1CpkJ22VrGnFOy5A1ba4VPUPDVGooSHmeI18rAH1D1+kQRd1kfaflIdffD1eeJO4DjXF1/JC4uA==" saltValue="z53X+BT+GWeylWBMFBybHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hl/W5jEEMGs3Qn2DrHO1DDBlHvjOsT1shS9qaj91C8Q4yfHXbU5nxjdZkUNapzBvkZHMODxz7958Afsmaf0B0Q==" saltValue="EGKUJRRTgquksmfSjNE1sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/files/cadastre.xlsx
+++ b/static/files/cadastre.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Références Cadastrales" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,29 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Section
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ne mettre que des lettres dans cette colonne</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Section</t>
   </si>
   <si>
     <t xml:space="preserve">Numéro</t>
@@ -52,27 +32,13 @@
     <t xml:space="preserve">Lieudit</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Surface
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mettre la surface sous la forme xx ha xx a xx ca</t>
-    </r>
+    <t xml:space="preserve">Surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne mettre que des lettres dans cette colonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre la surface sous la forme xx ha xx a xx ca</t>
   </si>
   <si>
     <t xml:space="preserve">Ici quelques explications</t>
@@ -102,6 +68,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Une image du cadastre suffit </t>
     </r>
@@ -112,6 +79,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OU</t>
     </r>
@@ -121,6 +89,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> le tableau</t>
     </r>
@@ -133,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -169,6 +138,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -185,19 +155,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,6 +296,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,7 +348,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,18 +429,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,322 +455,332 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+    <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -823,54 +799,54 @@
   </sheetPr>
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
-        <v>4</v>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
-        <v>11</v>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/cadastre.xlsx
+++ b/static/files/cadastre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F371B19D-2C75-484A-9A9E-CD4A51CF47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B4F3D-4642-45D5-92FC-5F456B501A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="4100" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Références Cadastrales" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -68,13 +68,22 @@
   </si>
   <si>
     <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Ne mettre que des lettres dans cette colonne</t>
+  </si>
+  <si>
+    <t>mettre la surface sous la forme xx ha xx a xx ca</t>
+  </si>
+  <si>
+    <t>Une image du cadastre suffit OU le tableau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +114,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -246,13 +262,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -578,16 +594,16 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -600,25 +616,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -632,7 +652,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -646,331 +666,337 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Hl/W5jEEMGs3Qn2DrHO1DDBlHvjOsT1shS9qaj91C8Q4yfHXbU5nxjdZkUNapzBvkZHMODxz7958Afsmaf0B0Q==" saltValue="EGKUJRRTgquksmfSjNE1sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0ReF0RBVZx43aOPwuiztg7eFNOdKTW/5gw/2T5bxSSQYNS9MKCjO2uCoyshlyreOJPbWrcCI9NjibRItxJQ4CQ==" saltValue="jUqw6oL+nrKSO2tp/ucEmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/files/cadastre.xlsx
+++ b/static/files/cadastre.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B4F3D-4642-45D5-92FC-5F456B501A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C5788-EADA-F847-B797-D7F526F4EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="37540" yWindow="1920" windowWidth="28880" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Références Cadastrales" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,36 +148,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -246,35 +222,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -295,9 +268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -441,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,344 +564,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="11"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -945,52 +924,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
